--- a/pred_ohlcv/54_23/2019-10-17 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-17 LINK ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -829,7 +829,7 @@
         <v>2753</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>2754</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>2755</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>2757</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>2756</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>2765</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>2765</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>2770</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>2770</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>2765</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>2765</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>2764</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>2759</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>2760</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>2766</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>2763</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>2758</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>2759</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         <v>2760</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>2760</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3474,7 +3474,7 @@
         <v>2883</v>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -3497,7 +3497,7 @@
         <v>2890</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -3520,7 +3520,7 @@
         <v>2890</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -3543,7 +3543,7 @@
         <v>2882</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -3612,7 +3612,7 @@
         <v>2886</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -3635,7 +3635,7 @@
         <v>2886</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -3934,7 +3934,7 @@
         <v>2878</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -3957,7 +3957,7 @@
         <v>2878</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>2879</v>
       </c>
       <c r="F157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -4003,7 +4003,7 @@
         <v>2878</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -4026,7 +4026,7 @@
         <v>2879</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -4049,7 +4049,7 @@
         <v>2871</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -4072,7 +4072,7 @@
         <v>2872</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -6510,7 +6510,7 @@
         <v>2908</v>
       </c>
       <c r="F267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -6533,7 +6533,7 @@
         <v>2909</v>
       </c>
       <c r="F268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -6556,7 +6556,7 @@
         <v>2918</v>
       </c>
       <c r="F269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -6579,7 +6579,7 @@
         <v>2922</v>
       </c>
       <c r="F270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -6602,7 +6602,7 @@
         <v>2945</v>
       </c>
       <c r="F271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -6625,7 +6625,7 @@
         <v>2922</v>
       </c>
       <c r="F272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -6763,7 +6763,7 @@
         <v>2941</v>
       </c>
       <c r="F278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -6786,7 +6786,7 @@
         <v>2933</v>
       </c>
       <c r="F279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -6832,7 +6832,7 @@
         <v>2925</v>
       </c>
       <c r="F281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -6855,7 +6855,7 @@
         <v>2927</v>
       </c>
       <c r="F282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -6878,7 +6878,7 @@
         <v>2940</v>
       </c>
       <c r="F283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -6901,7 +6901,7 @@
         <v>2942</v>
       </c>
       <c r="F284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -6947,7 +6947,7 @@
         <v>2940</v>
       </c>
       <c r="F286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -6970,7 +6970,7 @@
         <v>2940</v>
       </c>
       <c r="F287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -7016,7 +7016,7 @@
         <v>2926</v>
       </c>
       <c r="F289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -7039,7 +7039,7 @@
         <v>2939</v>
       </c>
       <c r="F290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -7062,7 +7062,7 @@
         <v>2922</v>
       </c>
       <c r="F291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -7085,7 +7085,7 @@
         <v>2920</v>
       </c>
       <c r="F292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -7108,7 +7108,7 @@
         <v>2926</v>
       </c>
       <c r="F293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -7131,7 +7131,7 @@
         <v>2921</v>
       </c>
       <c r="F294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -7322,6 +7322,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>